--- a/anonym_form_app/xlsx/report-actual-tasks.xlsx
+++ b/anonym_form_app/xlsx/report-actual-tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Описание</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Решение</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +380,8 @@
     <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -401,9 +405,11 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
   </sheetData>

--- a/anonym_form_app/xlsx/report-actual-tasks.xlsx
+++ b/anonym_form_app/xlsx/report-actual-tasks.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +377,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="125.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
